--- a/regionseng/6/trade/trade.xlsx
+++ b/regionseng/6/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="4485" windowWidth="21615" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -547,7 +547,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -566,8 +566,10 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -614,8 +616,14 @@
       <c r="P3" s="13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="13">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -664,8 +672,14 @@
       <c r="P4" s="14">
         <v>1939.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="14">
+        <v>2417.6999999999998</v>
+      </c>
+      <c r="R4" s="14">
+        <v>2663.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -714,8 +728,14 @@
       <c r="P5" s="14">
         <v>305.60000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="14">
+        <v>435.2</v>
+      </c>
+      <c r="R5" s="14">
+        <v>471.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -764,8 +784,14 @@
       <c r="P6" s="15">
         <v>11823</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="15">
+        <v>14488</v>
+      </c>
+      <c r="R6" s="15">
+        <v>14741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,8 +840,14 @@
       <c r="P7" s="15">
         <v>6868</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="15">
+        <v>8510</v>
+      </c>
+      <c r="R7" s="15">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -864,8 +896,14 @@
       <c r="P8" s="14">
         <v>665.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="14">
+        <v>599.5</v>
+      </c>
+      <c r="R8" s="14">
+        <v>791.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -914,8 +952,14 @@
       <c r="P9" s="14">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="14">
+        <v>109.9</v>
+      </c>
+      <c r="R9" s="14">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -964,8 +1008,14 @@
       <c r="P10" s="14">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="14">
+        <v>62.1</v>
+      </c>
+      <c r="R10" s="14">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1064,14 @@
       <c r="P11" s="14">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="14">
+        <v>325.2</v>
+      </c>
+      <c r="R11" s="14">
+        <v>372.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1064,8 +1120,14 @@
       <c r="P12" s="14">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="R12" s="14">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1114,8 +1176,14 @@
       <c r="P13" s="14">
         <v>1740.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="14">
+        <v>2143.4</v>
+      </c>
+      <c r="R13" s="14">
+        <v>2344.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1164,8 +1232,14 @@
       <c r="P14" s="14">
         <v>1681</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="12.75">
+      <c r="Q14" s="14">
+        <v>2056.3000000000002</v>
+      </c>
+      <c r="R14" s="14">
+        <v>2259.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1265,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/6/trade/trade.xlsx
+++ b/regionseng/6/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22215" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -547,7 +547,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -568,8 +568,9 @@
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S1" s="16"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -622,8 +623,11 @@
       <c r="R3" s="13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -678,8 +682,11 @@
       <c r="R4" s="14">
         <v>2663.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="14">
+        <v>2676.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -734,8 +741,11 @@
       <c r="R5" s="14">
         <v>471.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="14">
+        <v>451.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -790,8 +800,11 @@
       <c r="R6" s="15">
         <v>14741</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="15">
+        <v>15011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -846,8 +859,11 @@
       <c r="R7" s="15">
         <v>9139</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="15">
+        <v>10515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -902,8 +918,11 @@
       <c r="R8" s="14">
         <v>791.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="14">
+        <v>764.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -958,8 +977,11 @@
       <c r="R9" s="14">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="14">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1036,11 @@
       <c r="R10" s="14">
         <v>87.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="14">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1095,11 @@
       <c r="R11" s="14">
         <v>372.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="14">
+        <v>366.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1126,8 +1154,11 @@
       <c r="R12" s="14">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="14">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1182,8 +1213,11 @@
       <c r="R13" s="14">
         <v>2344.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="14">
+        <v>2344.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1238,8 +1272,11 @@
       <c r="R14" s="14">
         <v>2259.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
+      <c r="S14" s="14">
+        <v>2274.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1302,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
